--- a/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_3_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_3_evaluation.xlsx
@@ -384,7 +384,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision on x recall on y</c:v>
+            <c:v>Precision vs recall</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1016,6 +1016,7 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="true"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1026,6 +1027,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
@@ -1037,6 +1040,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="false"/>
+    </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>
   <c:printSettings>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_3_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_3_evaluation.xlsx
@@ -384,7 +384,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision vs recall</c:v>
+            <c:v>Precision vs recall
+Precision on X-Axis
+Recall on y-Axis</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1042,7 +1044,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
+      <c:overlay val="true"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_3_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_3_evaluation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Rank</t>
   </si>
@@ -29,301 +29,304 @@
     <t>CACM-2061</t>
   </si>
   <si>
+    <t>CACM-1366</t>
+  </si>
+  <si>
+    <t>CACM-2939</t>
+  </si>
+  <si>
+    <t>CACM-2886</t>
+  </si>
+  <si>
+    <t>CACM-1135</t>
+  </si>
+  <si>
+    <t>CACM-2470</t>
+  </si>
+  <si>
+    <t>CACM-1098</t>
+  </si>
+  <si>
+    <t>CACM-1003</t>
+  </si>
+  <si>
+    <t>CACM-2931</t>
+  </si>
+  <si>
+    <t>CACM-2921</t>
+  </si>
+  <si>
+    <t>CACM-2233</t>
+  </si>
+  <si>
+    <t>CACM-1572</t>
+  </si>
+  <si>
+    <t>CACM-3077</t>
+  </si>
+  <si>
+    <t>CACM-2317</t>
+  </si>
+  <si>
+    <t>CACM-1350</t>
+  </si>
+  <si>
+    <t>CACM-0637</t>
+  </si>
+  <si>
     <t>CACM-1988</t>
   </si>
   <si>
-    <t>CACM-2921</t>
-  </si>
-  <si>
-    <t>CACM-2939</t>
-  </si>
-  <si>
-    <t>CACM-2886</t>
+    <t>CACM-2990</t>
+  </si>
+  <si>
+    <t>CACM-0464</t>
+  </si>
+  <si>
+    <t>CACM-2341</t>
+  </si>
+  <si>
+    <t>CACM-3115</t>
+  </si>
+  <si>
+    <t>CACM-1387</t>
+  </si>
+  <si>
+    <t>CACM-2572</t>
+  </si>
+  <si>
+    <t>CACM-1788</t>
+  </si>
+  <si>
+    <t>CACM-1671</t>
+  </si>
+  <si>
+    <t>CACM-2316</t>
+  </si>
+  <si>
+    <t>CACM-1807</t>
+  </si>
+  <si>
+    <t>CACM-2684</t>
+  </si>
+  <si>
+    <t>CACM-2217</t>
+  </si>
+  <si>
+    <t>CACM-2645</t>
+  </si>
+  <si>
+    <t>CACM-2198</t>
+  </si>
+  <si>
+    <t>CACM-1457</t>
+  </si>
+  <si>
+    <t>CACM-1194</t>
+  </si>
+  <si>
+    <t>CACM-1134</t>
   </si>
   <si>
     <t>CACM-2112</t>
   </si>
   <si>
-    <t>CACM-1350</t>
-  </si>
-  <si>
-    <t>CACM-1366</t>
-  </si>
-  <si>
-    <t>CACM-3115</t>
-  </si>
-  <si>
-    <t>CACM-1135</t>
-  </si>
-  <si>
-    <t>CACM-0637</t>
-  </si>
-  <si>
-    <t>CACM-1098</t>
-  </si>
-  <si>
-    <t>CACM-2470</t>
-  </si>
-  <si>
-    <t>CACM-2316</t>
-  </si>
-  <si>
-    <t>CACM-1788</t>
-  </si>
-  <si>
-    <t>CACM-1003</t>
+    <t>CACM-1665</t>
+  </si>
+  <si>
+    <t>CACM-2864</t>
+  </si>
+  <si>
+    <t>CACM-2424</t>
+  </si>
+  <si>
+    <t>CACM-2746</t>
+  </si>
+  <si>
+    <t>CACM-2887</t>
+  </si>
+  <si>
+    <t>CACM-2652</t>
   </si>
   <si>
     <t>CACM-2534</t>
   </si>
   <si>
-    <t>CACM-1134</t>
-  </si>
-  <si>
-    <t>CACM-2684</t>
-  </si>
-  <si>
-    <t>CACM-1572</t>
-  </si>
-  <si>
-    <t>CACM-1387</t>
-  </si>
-  <si>
-    <t>CACM-1807</t>
-  </si>
-  <si>
-    <t>CACM-2317</t>
+    <t>CACM-2254</t>
   </si>
   <si>
     <t>CACM-1223</t>
   </si>
   <si>
+    <t>CACM-2053</t>
+  </si>
+  <si>
+    <t>CACM-1650</t>
+  </si>
+  <si>
+    <t>CACM-1365</t>
+  </si>
+  <si>
+    <t>CACM-2196</t>
+  </si>
+  <si>
+    <t>CACM-2940</t>
+  </si>
+  <si>
+    <t>CACM-1315</t>
+  </si>
+  <si>
+    <t>CACM-3124</t>
+  </si>
+  <si>
+    <t>CACM-1543</t>
+  </si>
+  <si>
     <t>CACM-1496</t>
   </si>
   <si>
+    <t>CACM-2705</t>
+  </si>
+  <si>
+    <t>CACM-2989</t>
+  </si>
+  <si>
+    <t>CACM-2929</t>
+  </si>
+  <si>
+    <t>CACM-3105</t>
+  </si>
+  <si>
+    <t>CACM-2598</t>
+  </si>
+  <si>
+    <t>CACM-2739</t>
+  </si>
+  <si>
+    <t>CACM-1976</t>
+  </si>
+  <si>
+    <t>CACM-3030</t>
+  </si>
+  <si>
+    <t>CACM-3150</t>
+  </si>
+  <si>
+    <t>CACM-2344</t>
+  </si>
+  <si>
     <t>CACM-3099</t>
   </si>
   <si>
-    <t>CACM-1723</t>
-  </si>
-  <si>
-    <t>CACM-2931</t>
-  </si>
-  <si>
     <t>CACM-2603</t>
   </si>
   <si>
-    <t>CACM-2645</t>
-  </si>
-  <si>
-    <t>CACM-2233</t>
-  </si>
-  <si>
-    <t>CACM-3105</t>
-  </si>
-  <si>
-    <t>CACM-2424</t>
-  </si>
-  <si>
-    <t>CACM-2705</t>
+    <t>CACM-1916</t>
+  </si>
+  <si>
+    <t>CACM-2033</t>
+  </si>
+  <si>
+    <t>CACM-3080</t>
+  </si>
+  <si>
+    <t>CACM-2867</t>
+  </si>
+  <si>
+    <t>CACM-1728</t>
+  </si>
+  <si>
+    <t>CACM-2175</t>
+  </si>
+  <si>
+    <t>CACM-2002</t>
+  </si>
+  <si>
+    <t>CACM-1206</t>
+  </si>
+  <si>
+    <t>CACM-0854</t>
+  </si>
+  <si>
+    <t>CACM-1029</t>
+  </si>
+  <si>
+    <t>CACM-2138</t>
+  </si>
+  <si>
+    <t>CACM-1928</t>
+  </si>
+  <si>
+    <t>CACM-1456</t>
+  </si>
+  <si>
+    <t>CACM-1641</t>
+  </si>
+  <si>
+    <t>CACM-1678</t>
   </si>
   <si>
     <t>CACM-3130</t>
   </si>
   <si>
-    <t>CACM-2572</t>
-  </si>
-  <si>
-    <t>CACM-2341</t>
-  </si>
-  <si>
-    <t>CACM-2990</t>
-  </si>
-  <si>
-    <t>CACM-0464</t>
-  </si>
-  <si>
-    <t>CACM-1457</t>
-  </si>
-  <si>
-    <t>CACM-1671</t>
-  </si>
-  <si>
-    <t>CACM-1029</t>
-  </si>
-  <si>
-    <t>CACM-3030</t>
-  </si>
-  <si>
-    <t>CACM-2652</t>
+    <t>CACM-1827</t>
+  </si>
+  <si>
+    <t>CACM-2314</t>
   </si>
   <si>
     <t>CACM-1787</t>
   </si>
   <si>
-    <t>CACM-2929</t>
-  </si>
-  <si>
-    <t>CACM-1194</t>
-  </si>
-  <si>
-    <t>CACM-2579</t>
-  </si>
-  <si>
-    <t>CACM-3077</t>
-  </si>
-  <si>
-    <t>CACM-1852</t>
-  </si>
-  <si>
-    <t>CACM-2138</t>
-  </si>
-  <si>
-    <t>CACM-2746</t>
-  </si>
-  <si>
-    <t>CACM-2542</t>
-  </si>
-  <si>
-    <t>CACM-3124</t>
-  </si>
-  <si>
-    <t>CACM-3150</t>
-  </si>
-  <si>
-    <t>CACM-2053</t>
-  </si>
-  <si>
-    <t>CACM-2867</t>
+    <t>CACM-2195</t>
+  </si>
+  <si>
+    <t>CACM-1844</t>
+  </si>
+  <si>
+    <t>CACM-1170</t>
+  </si>
+  <si>
+    <t>CACM-0321</t>
+  </si>
+  <si>
+    <t>CACM-2264</t>
+  </si>
+  <si>
+    <t>CACM-2305</t>
+  </si>
+  <si>
+    <t>CACM-2718</t>
+  </si>
+  <si>
+    <t>CACM-1348</t>
+  </si>
+  <si>
+    <t>CACM-2210</t>
+  </si>
+  <si>
+    <t>CACM-1323</t>
+  </si>
+  <si>
+    <t>CACM-1533</t>
+  </si>
+  <si>
+    <t>CACM-1491</t>
+  </si>
+  <si>
+    <t>CACM-2846</t>
   </si>
   <si>
     <t>CACM-2179</t>
   </si>
   <si>
-    <t>CACM-0252</t>
-  </si>
-  <si>
-    <t>CACM-0799</t>
-  </si>
-  <si>
-    <t>CACM-2406</t>
-  </si>
-  <si>
-    <t>CACM-1456</t>
-  </si>
-  <si>
-    <t>CACM-2210</t>
-  </si>
-  <si>
-    <t>CACM-3093</t>
-  </si>
-  <si>
-    <t>CACM-2718</t>
-  </si>
-  <si>
-    <t>CACM-2873</t>
-  </si>
-  <si>
-    <t>CACM-2897</t>
-  </si>
-  <si>
-    <t>CACM-1533</t>
-  </si>
-  <si>
-    <t>CACM-1678</t>
-  </si>
-  <si>
-    <t>CACM-2423</t>
-  </si>
-  <si>
-    <t>CACM-2254</t>
-  </si>
-  <si>
-    <t>CACM-2111</t>
-  </si>
-  <si>
-    <t>CACM-2732</t>
-  </si>
-  <si>
-    <t>CACM-3102</t>
-  </si>
-  <si>
-    <t>CACM-2870</t>
-  </si>
-  <si>
-    <t>CACM-2305</t>
-  </si>
-  <si>
-    <t>CACM-1484</t>
-  </si>
-  <si>
-    <t>CACM-0205</t>
-  </si>
-  <si>
-    <t>CACM-2217</t>
-  </si>
-  <si>
-    <t>CACM-2372</t>
-  </si>
-  <si>
-    <t>CACM-2198</t>
-  </si>
-  <si>
-    <t>CACM-1062</t>
-  </si>
-  <si>
-    <t>CACM-1783</t>
-  </si>
-  <si>
-    <t>CACM-2411</t>
-  </si>
-  <si>
-    <t>CACM-1835</t>
-  </si>
-  <si>
-    <t>CACM-2739</t>
-  </si>
-  <si>
-    <t>CACM-1565</t>
-  </si>
-  <si>
-    <t>CACM-2940</t>
-  </si>
-  <si>
-    <t>CACM-1154</t>
-  </si>
-  <si>
-    <t>CACM-2064</t>
+    <t>CACM-3056</t>
   </si>
   <si>
     <t>CACM-1470</t>
   </si>
   <si>
-    <t>CACM-2887</t>
-  </si>
-  <si>
-    <t>CACM-1348</t>
-  </si>
-  <si>
-    <t>CACM-2989</t>
-  </si>
-  <si>
-    <t>CACM-1392</t>
-  </si>
-  <si>
-    <t>CACM-1459</t>
-  </si>
-  <si>
-    <t>CACM-1315</t>
-  </si>
-  <si>
-    <t>CACM-2598</t>
-  </si>
-  <si>
-    <t>CACM-3148</t>
-  </si>
-  <si>
-    <t>CACM-1947</t>
+    <t>MAP is -&gt;0.16036272053999132</t>
   </si>
 </sst>
 </file>
@@ -448,52 +451,52 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.3333333333333333</c:v>
@@ -694,7 +697,7 @@
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,52 +759,52 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05555555555555555</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.05263157894736842</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.05</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.047619047619047616</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.08695652173913043</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.08333333333333333</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.08</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.07692307692307693</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.07407407407407407</c:v>
+                  <c:v>0.037037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.07142857142857142</c:v>
+                  <c:v>0.03571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.06896551724137931</c:v>
+                  <c:v>0.034482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.06666666666666667</c:v>
+                  <c:v>0.03333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.06451612903225806</c:v>
+                  <c:v>0.03225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0625</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.06060606060606061</c:v>
+                  <c:v>0.030303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.058823529411764705</c:v>
@@ -1002,7 +1005,7 @@
                   <c:v>0.020202020202020204</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:CZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1365,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1379,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1393,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1407,10 +1410,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>0.047619047619047616</v>
+        <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1421,10 +1424,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -1435,10 +1438,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -1449,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1463,10 +1466,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1477,10 +1480,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1491,10 +1494,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -1505,10 +1508,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -1519,10 +1522,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.034482758620689655</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -1533,10 +1536,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="32">
@@ -1547,10 +1550,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="33">
@@ -1561,10 +1564,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0625</v>
+        <v>0.03125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -1575,10 +1578,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -2513,10 +2516,15 @@
         <v>103</v>
       </c>
       <c r="C101" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="CY102" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
